--- a/Utah/Overlays/UTov_Overlay Schema Mapping to WaDE.xlsx
+++ b/Utah/Overlays/UTov_Overlay Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Utah\Regulatory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Utah\Overlays\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E143688-864A-487E-B9D4-3C579871E85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956CA73A-38AA-4781-9539-19D35D478CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2010" windowWidth="29040" windowHeight="15720" tabRatio="645" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
+    <workbookView xWindow="-28920" yWindow="2475" windowWidth="29040" windowHeight="15720" tabRatio="645" activeTab="6" xr2:uid="{00CC2BD5-2C7C-4716-9573-3E594BB9D2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="1" r:id="rId1"/>
@@ -483,9 +483,6 @@
     <t xml:space="preserve">Water Right Areas are  administrative boundaries based primarily on surface drainage areas. </t>
   </si>
   <si>
-    <t>UTre_O1</t>
-  </si>
-  <si>
     <t>Jim Reese (Assistant State Engineer - Technical Services)</t>
   </si>
   <si>
@@ -496,9 +493,6 @@
   </si>
   <si>
     <t>(blank)</t>
-  </si>
-  <si>
-    <t>UTre_RU + conter</t>
   </si>
   <si>
     <t>*get from regulatoryoverlay.csv</t>
@@ -607,7 +601,13 @@
  5/3/2023</t>
   </si>
   <si>
-    <t>UTre_RO + counter</t>
+    <t>UTov_O1</t>
+  </si>
+  <si>
+    <t>UTov_RU + conter</t>
+  </si>
+  <si>
+    <t>UTov_RO + counter</t>
   </si>
 </sst>
 </file>
@@ -1325,9 +1325,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1365,7 +1365,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1471,7 +1471,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1613,7 +1613,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1623,7 +1623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE91C3C-F676-4E77-8227-802554E4B42D}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
@@ -1701,35 +1701,35 @@
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C8" s="64"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="66"/>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C9" s="64"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="66"/>
       <c r="B10" s="113" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C10" s="64"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="66"/>
       <c r="B11" s="113" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C11" s="64"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="66"/>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C12" s="64"/>
     </row>
@@ -1958,7 +1958,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2064,7 +2064,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="119" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="G3" s="114" t="s">
         <v>8</v>
@@ -2099,7 +2099,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="122" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>8</v>
@@ -2134,7 +2134,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="122" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>8</v>
@@ -2239,7 +2239,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="122" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>8</v>
@@ -2374,7 +2374,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2480,7 +2480,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="53" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="G3" s="54"/>
       <c r="H3" s="55"/>
@@ -2550,7 +2550,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G5" s="43" t="s">
         <v>8</v>
@@ -2587,7 +2587,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G6" s="59" t="s">
         <v>8</v>
@@ -2627,10 +2627,10 @@
         <v>8</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H7" s="60" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I7" s="77" t="s">
         <v>8</v>
@@ -2661,7 +2661,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G8" s="43" t="s">
         <v>8</v>
@@ -2696,10 +2696,10 @@
         <v>10</v>
       </c>
       <c r="F9" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="42" t="s">
         <v>157</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>159</v>
       </c>
       <c r="H9" s="60" t="s">
         <v>8</v>
@@ -2857,8 +2857,8 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2988,10 +2988,10 @@
         <v>8</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H4" s="60" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>8</v>
@@ -3020,10 +3020,10 @@
         <v>8</v>
       </c>
       <c r="F5" s="120" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H5" s="118" t="s">
         <v>8</v>
@@ -3055,7 +3055,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G6" s="59" t="s">
         <v>8</v>
@@ -3090,13 +3090,13 @@
         <v>8</v>
       </c>
       <c r="F7" s="59" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H7" s="60" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>8</v>
@@ -3125,13 +3125,13 @@
         <v>8</v>
       </c>
       <c r="F8" s="59" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H8" s="118" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I8" s="28" t="s">
         <v>8</v>
@@ -3160,10 +3160,10 @@
         <v>8</v>
       </c>
       <c r="F9" s="56" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H9" s="60" t="s">
         <v>8</v>
@@ -3193,13 +3193,13 @@
         <v>8</v>
       </c>
       <c r="F10" s="59" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H10" s="118" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I10" s="43" t="s">
         <v>8</v>
@@ -3228,10 +3228,10 @@
         <v>8</v>
       </c>
       <c r="F11" s="48" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H11" s="60" t="s">
         <v>8</v>
@@ -3263,7 +3263,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G12" s="59" t="s">
         <v>8</v>
@@ -3296,10 +3296,10 @@
         <v>10</v>
       </c>
       <c r="F13" s="49" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H13" s="115" t="s">
         <v>8</v>
@@ -3331,10 +3331,10 @@
         <v>10</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H14" s="115" t="s">
         <v>8</v>
@@ -3391,7 +3391,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3522,7 +3522,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="48" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="G4" s="43" t="s">
         <v>8</v>
@@ -3557,7 +3557,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G5" s="43" t="s">
         <v>8</v>
@@ -3592,7 +3592,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G6" s="43" t="s">
         <v>8</v>
@@ -3692,7 +3692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0292DBD0-9449-426F-89D5-E70E5E92E32E}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
